--- a/Especificas/DOCUMENTACION DE RESPALDO - PW.xlsx
+++ b/Especificas/DOCUMENTACION DE RESPALDO - PW.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.ramos\Desktop\DIN\Querys\Especificas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC576992-AD9F-457A-A856-38FF95529AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos-originales" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>Mascara tarjeta</t>
   </si>
@@ -63,9 +64,6 @@
     <t>20465000</t>
   </si>
   <si>
-    <t>UNIVERSIDAD TECNOLOGICA BP</t>
-  </si>
-  <si>
     <t>codtransa</t>
   </si>
   <si>
@@ -120,110 +118,131 @@
     <t>Aprobado</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>MASTERCARD</t>
-  </si>
-  <si>
     <t>Arancel</t>
   </si>
   <si>
     <t>Concepto</t>
   </si>
   <si>
-    <t>510805######4500</t>
-  </si>
-  <si>
-    <t>24/06/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$                   75.00 </t>
-  </si>
-  <si>
-    <t>000557</t>
-  </si>
-  <si>
-    <t>Duplicidad</t>
-  </si>
-  <si>
-    <t>25/07/2021</t>
-  </si>
-  <si>
-    <t>004936</t>
-  </si>
-  <si>
-    <t>4372</t>
-  </si>
-  <si>
-    <t>64-3466-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCIA SERRANO MARIA RUBIDIA </t>
-  </si>
-  <si>
-    <t>2790-9512</t>
-  </si>
-  <si>
-    <t>X-4500</t>
-  </si>
-  <si>
-    <t>V-51</t>
-  </si>
-  <si>
-    <t>1ª Cuota</t>
-  </si>
-  <si>
-    <t>117609103204</t>
-  </si>
-  <si>
-    <t>3911741384</t>
-  </si>
-  <si>
-    <t>RUBI GARCIA-RENDEROS</t>
-  </si>
-  <si>
-    <t>0313007500000023344520220218</t>
-  </si>
-  <si>
-    <t>2021-06-25 09:49:42.357</t>
-  </si>
-  <si>
-    <t>4363</t>
-  </si>
-  <si>
-    <t>031655</t>
-  </si>
-  <si>
-    <t>117422100228</t>
-  </si>
-  <si>
-    <t>1741950390</t>
-  </si>
-  <si>
-    <t>0313010000000023344510220219</t>
-  </si>
-  <si>
-    <t>2021-06-23 22:17:00.180</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>V-50</t>
-  </si>
-  <si>
-    <t>Matricula</t>
+    <t>UNIVERSIDAD TECNOLOGICA B</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>4118-xxxxxxxx-6495</t>
+  </si>
+  <si>
+    <t>30/04/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                130.00 </t>
+  </si>
+  <si>
+    <t>537749</t>
+  </si>
+  <si>
+    <t>Controversia por fraude</t>
+  </si>
+  <si>
+    <t>11/05/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                120.00 </t>
+  </si>
+  <si>
+    <t>878417</t>
+  </si>
+  <si>
+    <t>63322</t>
+  </si>
+  <si>
+    <t>54-3228-2017</t>
+  </si>
+  <si>
+    <t>AGUIRRE QUIROZ ROSA IRMA</t>
+  </si>
+  <si>
+    <t>04583377-3</t>
+  </si>
+  <si>
+    <t>1123-180292-103-2</t>
+  </si>
+  <si>
+    <t>rosairmaq@gmail.com</t>
+  </si>
+  <si>
+    <t>7820-5983</t>
+  </si>
+  <si>
+    <t>2662-2833</t>
+  </si>
+  <si>
+    <t>FINAL 10 AVE NORTE COL LAS MARIAS #65</t>
+  </si>
+  <si>
+    <t>X-6495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-55 </t>
+  </si>
+  <si>
+    <t>2a. Cuota del Proc. de Pre-Especialización</t>
+  </si>
+  <si>
+    <t>212010176403</t>
+  </si>
+  <si>
+    <t>4624048378</t>
+  </si>
+  <si>
+    <t>EDUARDO ALBERTO</t>
+  </si>
+  <si>
+    <t>0313012000000020049710120221</t>
+  </si>
+  <si>
+    <t>2022-04-30 10:05:50.620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-88 </t>
+  </si>
+  <si>
+    <t>Pago Complementario</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>64904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-56 </t>
+  </si>
+  <si>
+    <t>3a. Cuota del Proc. de Pre-Especialización</t>
+  </si>
+  <si>
+    <t>213111062796</t>
+  </si>
+  <si>
+    <t>6678098946</t>
+  </si>
+  <si>
+    <t>0313012000000020049720120229</t>
+  </si>
+  <si>
+    <t>2022-05-11 11:08:39.330</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +254,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,7 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,54 +457,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H3" totalsRowShown="0" headerRowDxfId="32">
-  <autoFilter ref="A1:H3"/>
-  <sortState ref="A2:G51">
-    <sortCondition ref="B1:B51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:H3" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G40">
+    <sortCondition ref="B1:B40"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="TARJETA" dataDxfId="31"/>
-    <tableColumn id="2" name="FECHA DE COMPRA" dataDxfId="30"/>
-    <tableColumn id="3" name="VALOR DE LA TRANSACCION" dataDxfId="29"/>
-    <tableColumn id="4" name="No AUTORIZACION" dataDxfId="28"/>
-    <tableColumn id="5" name="AFILIADO" dataDxfId="27"/>
-    <tableColumn id="6" name="TERMINAL" dataDxfId="26"/>
-    <tableColumn id="7" name="COMERCIO" dataDxfId="25"/>
-    <tableColumn id="8" name="COMENTARIOS" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TARJETA" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="FECHA DE COMPRA" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VALOR DE LA TRANSACCION" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="No AUTORIZACION" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="AFILIADO" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TERMINAL" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="COMERCIO" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="COMENTARIOS" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:V3" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:V3"/>
-  <sortState ref="A2:M49">
-    <sortCondition ref="J1:J49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla3" displayName="Tabla3" ref="A1:V4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:V4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M39">
+    <sortCondition ref="J1:J39"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" name="codtransa" dataDxfId="21"/>
-    <tableColumn id="13" name="Carnet" dataDxfId="20"/>
-    <tableColumn id="2" name="Nombre completo" dataDxfId="19"/>
-    <tableColumn id="3" name="DUI" dataDxfId="18"/>
-    <tableColumn id="4" name="NIT" dataDxfId="17"/>
-    <tableColumn id="14" name="Correo" dataDxfId="16"/>
-    <tableColumn id="5" name="Correo alterno" dataDxfId="15"/>
-    <tableColumn id="6" name="Celular" dataDxfId="14"/>
-    <tableColumn id="8" name="Telefono" dataDxfId="13"/>
-    <tableColumn id="9" name="Direccion" dataDxfId="12"/>
-    <tableColumn id="10" name="Autorizacion" dataDxfId="11"/>
-    <tableColumn id="11" name="Mascara tarjeta" dataDxfId="10"/>
-    <tableColumn id="12" name="Monto" dataDxfId="9"/>
-    <tableColumn id="7" name="Arancel" dataDxfId="8"/>
-    <tableColumn id="15" name="Concepto" dataDxfId="7"/>
-    <tableColumn id="16" name="ReferenceNumber" dataDxfId="6"/>
-    <tableColumn id="17" name="PayWayNumber" dataDxfId="5"/>
-    <tableColumn id="18" name="CustomerCCHolder" dataDxfId="4"/>
-    <tableColumn id="19" name="CustomerCCBrand" dataDxfId="3"/>
-    <tableColumn id="20" name="NPE" dataDxfId="2"/>
-    <tableColumn id="21" name="Estado" dataDxfId="1"/>
-    <tableColumn id="22" name="Fecha transaccion" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="codtransa" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Carnet" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Nombre completo" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DUI" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="NIT" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Correo" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Correo alterno" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Celular" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Telefono" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Direccion" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Autorizacion" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Mascara tarjeta" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Monto" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Arancel" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Concepto" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="ReferenceNumber" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="PayWayNumber" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="CustomerCCHolder" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="CustomerCCBrand" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="NPE" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Estado" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Fecha transaccion" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -747,31 +772,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="11.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
-    <col min="16" max="21" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="15" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -802,57 +821,58 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -862,18 +882,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -894,37 +916,37 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
@@ -933,155 +955,226 @@
         <v>1</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="R3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
